--- a/nts.uk/uk.com/com.file/nts.uk.file.com.infra/src/main/resources/report/申請者として承認ルートのEXCEL出力.xlsx
+++ b/nts.uk/uk.com/com.file/nts.uk.file.com.infra/src/main/resources/report/申請者として承認ルートのEXCEL出力.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180" tabRatio="770"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9045" tabRatio="770"/>
   </bookViews>
   <sheets>
     <sheet name="承認ルート出力" sheetId="33" r:id="rId1"/>
@@ -598,13 +598,13 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -44508,7 +44508,7 @@
   <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="U8" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.7109375" defaultRowHeight="12"/>
@@ -44534,33 +44534,33 @@
   <sheetData>
     <row r="1" spans="1:16" ht="15" customHeight="1" thickBot="1">
       <c r="A1" s="3"/>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="7"/>
+      <c r="C1" s="8"/>
       <c r="D1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="6"/>
-      <c r="G1" s="8" t="s">
+      <c r="F1" s="7"/>
+      <c r="G1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8" t="s">
+      <c r="H1" s="6"/>
+      <c r="I1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8" t="s">
+      <c r="J1" s="6"/>
+      <c r="K1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8" t="s">
+      <c r="L1" s="6"/>
+      <c r="M1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="8"/>
+      <c r="N1" s="6"/>
       <c r="O1" s="4" t="s">
         <v>0</v>
       </c>

--- a/nts.uk/uk.com/com.file/nts.uk.file.com.infra/src/main/resources/report/申請者として承認ルートのEXCEL出力.xlsx
+++ b/nts.uk/uk.com/com.file/nts.uk.file.com.infra/src/main/resources/report/申請者として承認ルートのEXCEL出力.xlsx
@@ -128,7 +128,7 @@
     <definedName name="PG単価">[8]明細合計!#REF!</definedName>
     <definedName name="PG田中" localSheetId="0">#REF!</definedName>
     <definedName name="PG田中">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">承認ルート出力!$A$1:$P$24</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">承認ルート出力!$A$1:$P$52</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">承認ルート出力!$1:$1</definedName>
     <definedName name="PrintDaicho" localSheetId="0">[9]!PrintDaicho</definedName>
     <definedName name="PrintDaicho">[9]!PrintDaicho</definedName>
@@ -44507,8 +44507,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="U8" sqref="A1:XFD1048576"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A25" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.7109375" defaultRowHeight="12"/>
@@ -44588,7 +44588,7 @@
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.39370078740157499" right="0.39370078740157499" top="0.59055118110236204" bottom="0.59055118110236204" header="0.31496062992126" footer="0.31496062992126"/>
-  <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="83" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;L&amp;"ＭＳ ゴシック,Regular"&amp;9【会社】日通システム株式会社&amp;C&amp;"ＭＳ ゴシック,Bold"&amp;16承認者一覧（申請者&amp;"-,Regular"&amp;11）&amp;R&amp;"ＭＳ ゴシック,Regular"&amp;9&amp;D&amp;T
 &amp;P/&amp;N</oddHeader>

--- a/nts.uk/uk.com/com.file/nts.uk.file.com.infra/src/main/resources/report/申請者として承認ルートのEXCEL出力.xlsx
+++ b/nts.uk/uk.com/com.file/nts.uk.file.com.infra/src/main/resources/report/申請者として承認ルートのEXCEL出力.xlsx
@@ -44507,7 +44507,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A25" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>

--- a/nts.uk/uk.com/com.file/nts.uk.file.com.infra/src/main/resources/report/申請者として承認ルートのEXCEL出力.xlsx
+++ b/nts.uk/uk.com/com.file/nts.uk.file.com.infra/src/main/resources/report/申請者として承認ルートのEXCEL出力.xlsx
@@ -46,8 +46,8 @@
     <definedName name="_面接から採用に至るまでの情報管理とする_____アウトソーシングにて_採用された情報を_ファイ__ルにて取込を行う_">#REF!</definedName>
     <definedName name="・面接から採用に至るまでの情報管理とする。___・アウトソーシングにて_採用された情報を_ファイ__ルにて取込を行う。" localSheetId="0">#REF!</definedName>
     <definedName name="・面接から採用に至るまでの情報管理とする。___・アウトソーシングにて_採用された情報を_ファイ__ルにて取込を行う。">#REF!</definedName>
-    <definedName name="a" localSheetId="0">[1]１．社内ﾈｯﾄﾜｰｸﾊｰﾄﾞｳｪｱ!#REF!</definedName>
-    <definedName name="a">[1]１．社内ﾈｯﾄﾜｰｸﾊｰﾄﾞｳｪｱ!#REF!</definedName>
+    <definedName name="a" localSheetId="0">'[1]１．社内ﾈｯﾄﾜｰｸﾊｰﾄﾞｳｪｱ'!#REF!</definedName>
+    <definedName name="a">'[1]１．社内ﾈｯﾄﾜｰｸﾊｰﾄﾞｳｪｱ'!#REF!</definedName>
     <definedName name="AAA" localSheetId="0">#REF!</definedName>
     <definedName name="AAA">#REF!</definedName>
     <definedName name="aaaa" localSheetId="0">#REF!</definedName>
@@ -71,12 +71,12 @@
     <definedName name="ｃｃｃｃ" hidden="1">{"VIEW1",#N/A,FALSE,"懸案事項";"VIEW2",#N/A,FALSE,"懸案事項"}</definedName>
     <definedName name="CULC.cal_index_size" localSheetId="0">[3]!CULC.cal_index_size</definedName>
     <definedName name="CULC.cal_index_size">[3]!CULC.cal_index_size</definedName>
-    <definedName name="C保守単価" localSheetId="0">'[4]見積明細(ハードのみ）'!#REF!</definedName>
-    <definedName name="C保守単価">'[4]見積明細(ハードのみ）'!#REF!</definedName>
     <definedName name="C保守委託単価" localSheetId="0">'[4]見積明細(ハードのみ）'!#REF!</definedName>
     <definedName name="C保守委託単価">'[4]見積明細(ハードのみ）'!#REF!</definedName>
     <definedName name="C保守支援単価" localSheetId="0">'[4]見積明細(ハードのみ）'!#REF!</definedName>
     <definedName name="C保守支援単価">'[4]見積明細(ハードのみ）'!#REF!</definedName>
+    <definedName name="C保守単価" localSheetId="0">'[4]見積明細(ハードのみ）'!#REF!</definedName>
+    <definedName name="C保守単価">'[4]見積明細(ハードのみ）'!#REF!</definedName>
     <definedName name="DDDD" localSheetId="0" hidden="1">{"VIEW1",#N/A,FALSE,"春木";"VIEW2",#N/A,FALSE,"春木";"VIEW3",#N/A,FALSE,"春木"}</definedName>
     <definedName name="DDDD" hidden="1">{"VIEW1",#N/A,FALSE,"春木";"VIEW2",#N/A,FALSE,"春木";"VIEW3",#N/A,FALSE,"春木"}</definedName>
     <definedName name="def" localSheetId="0" hidden="1">{#N/A,#N/A,TRUE,"Sheet2";#N/A,#N/A,TRUE,"Sheet3";#N/A,#N/A,TRUE,"Sheet4";#N/A,#N/A,TRUE,"Sheet1"}</definedName>
@@ -100,6 +100,7 @@
     <definedName name="ｌ" hidden="1">{"VIEW1",#N/A,FALSE,"春木";"VIEW2",#N/A,FALSE,"春木";"VIEW3",#N/A,FALSE,"春木"}</definedName>
     <definedName name="ＬＨ" localSheetId="0">#REF!</definedName>
     <definedName name="ＬＨ">#REF!</definedName>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="ＬサＨ" localSheetId="0">#REF!</definedName>
     <definedName name="ＬサＨ">#REF!</definedName>
     <definedName name="Ｌサホ" localSheetId="0">#REF!</definedName>
@@ -114,8 +115,8 @@
     <definedName name="ＭＨ">#REF!</definedName>
     <definedName name="Ｍホ" localSheetId="0">#REF!</definedName>
     <definedName name="Ｍホ">#REF!</definedName>
-    <definedName name="ｎ" localSheetId="0">[6]１．社内ﾈｯﾄﾜｰｸﾊｰﾄﾞｳｪｱ!#REF!</definedName>
-    <definedName name="ｎ">[6]１．社内ﾈｯﾄﾜｰｸﾊｰﾄﾞｳｪｱ!#REF!</definedName>
+    <definedName name="ｎ" localSheetId="0">'[6]１．社内ﾈｯﾄﾜｰｸﾊｰﾄﾞｳｪｱ'!#REF!</definedName>
+    <definedName name="ｎ">'[6]１．社内ﾈｯﾄﾜｰｸﾊｰﾄﾞｳｪｱ'!#REF!</definedName>
     <definedName name="ＯＨ" localSheetId="0">#REF!</definedName>
     <definedName name="ＯＨ">#REF!</definedName>
     <definedName name="OPT_NO" localSheetId="0">[7]!OPT_NO</definedName>
@@ -177,10 +178,10 @@
     <definedName name="クニホ">#REF!</definedName>
     <definedName name="クホ" localSheetId="0">#REF!</definedName>
     <definedName name="クホ">#REF!</definedName>
-    <definedName name="サＨ" localSheetId="0">[10]１．社内ﾈｯﾄﾜｰｸﾊｰﾄﾞｳｪｱ!#REF!</definedName>
-    <definedName name="サＨ">[10]１．社内ﾈｯﾄﾜｰｸﾊｰﾄﾞｳｪｱ!#REF!</definedName>
-    <definedName name="サホ" localSheetId="0">[10]１．社内ﾈｯﾄﾜｰｸﾊｰﾄﾞｳｪｱ!#REF!</definedName>
-    <definedName name="サホ">[10]１．社内ﾈｯﾄﾜｰｸﾊｰﾄﾞｳｪｱ!#REF!</definedName>
+    <definedName name="サＨ" localSheetId="0">'[10]１．社内ﾈｯﾄﾜｰｸﾊｰﾄﾞｳｪｱ'!#REF!</definedName>
+    <definedName name="サＨ">'[10]１．社内ﾈｯﾄﾜｰｸﾊｰﾄﾞｳｪｱ'!#REF!</definedName>
+    <definedName name="サホ" localSheetId="0">'[10]１．社内ﾈｯﾄﾜｰｸﾊｰﾄﾞｳｪｱ'!#REF!</definedName>
+    <definedName name="サホ">'[10]１．社内ﾈｯﾄﾜｰｸﾊｰﾄﾞｳｪｱ'!#REF!</definedName>
     <definedName name="サホ1" localSheetId="0">#REF!</definedName>
     <definedName name="サホ1">#REF!</definedName>
     <definedName name="ツール別見積工数" localSheetId="0">#REF!</definedName>
@@ -211,52 +212,10 @@
     <definedName name="ワイドに">[13]!ワイドに</definedName>
     <definedName name="一般社員時間外労働手当部門別集計ｸｴﾘｰ" localSheetId="0">#REF!</definedName>
     <definedName name="一般社員時間外労働手当部門別集計ｸｴﾘｰ">#REF!</definedName>
-    <definedName name="人日原価" localSheetId="0">#REF!</definedName>
-    <definedName name="人日原価">#REF!</definedName>
-    <definedName name="仕切り">'[4]見積明細(ハードのみ）'!$R$5:$R$34</definedName>
-    <definedName name="仕切単価">'[4]見積明細(ハードのみ）'!$R$5:$R$34</definedName>
-    <definedName name="住民税115" localSheetId="0">#REF!</definedName>
-    <definedName name="住民税115">#REF!</definedName>
-    <definedName name="住民税96" localSheetId="0">#REF!</definedName>
-    <definedName name="住民税96">#REF!</definedName>
-    <definedName name="住民税納付先の登録7" localSheetId="0">#REF!</definedName>
-    <definedName name="住民税納付先の登録7">#REF!</definedName>
+    <definedName name="印刷" localSheetId="0">[14]!印刷</definedName>
+    <definedName name="印刷">[14]!印刷</definedName>
     <definedName name="価格表" localSheetId="0">#REF!</definedName>
     <definedName name="価格表">#REF!</definedName>
-    <definedName name="保守単価">'[4]見積明細(ハードのみ）'!$L$5:$L$34</definedName>
-    <definedName name="保守委託単価">'[4]見積明細(ハードのみ）'!$N$5:$N$34</definedName>
-    <definedName name="保守支援単価">'[4]見積明細(ハードのみ）'!$P$5:$P$34</definedName>
-    <definedName name="値引単価">'[4]見積明細(ハードのみ）'!$J$5:$J$34</definedName>
-    <definedName name="備考">'[4]見積明細(ハードのみ）'!$AA$5:$AA$34</definedName>
-    <definedName name="単価" localSheetId="0">#REF!</definedName>
-    <definedName name="単価">#REF!</definedName>
-    <definedName name="単価種別" localSheetId="0">#REF!</definedName>
-    <definedName name="単価種別">#REF!</definedName>
-    <definedName name="印刷" localSheetId="0">[14]!印刷</definedName>
-    <definedName name="印刷">[14]!印刷</definedName>
-    <definedName name="原価" localSheetId="0">#REF!</definedName>
-    <definedName name="原価">#REF!</definedName>
-    <definedName name="売値" localSheetId="0">#REF!</definedName>
-    <definedName name="売値">#REF!</definedName>
-    <definedName name="定価" localSheetId="0">#REF!</definedName>
-    <definedName name="定価">#REF!</definedName>
-    <definedName name="宿泊" localSheetId="0">#REF!</definedName>
-    <definedName name="宿泊">#REF!</definedName>
-    <definedName name="宿泊単金" localSheetId="0">#REF!</definedName>
-    <definedName name="宿泊単金">#REF!</definedName>
-    <definedName name="工程別生産性" localSheetId="0">#REF!</definedName>
-    <definedName name="工程別生産性">#REF!</definedName>
-    <definedName name="日帰り" localSheetId="0">#REF!</definedName>
-    <definedName name="日帰り">#REF!</definedName>
-    <definedName name="日帰り単金" localSheetId="0">#REF!</definedName>
-    <definedName name="日帰り単金">#REF!</definedName>
-    <definedName name="概要_基準日設定" localSheetId="0" hidden="1">#REF!</definedName>
-    <definedName name="概要_基準日設定" hidden="1">#REF!</definedName>
-    <definedName name="標準価格">'[4]見積明細(ハードのみ）'!$C$5:$H$34</definedName>
-    <definedName name="機種SORT" localSheetId="0">[15]!機種SORT</definedName>
-    <definedName name="機種SORT">[16]!機種SORT</definedName>
-    <definedName name="機能別原価" localSheetId="0">#REF!</definedName>
-    <definedName name="機能別原価">#REF!</definedName>
     <definedName name="画面1" localSheetId="0">#REF!</definedName>
     <definedName name="画面1">#REF!</definedName>
     <definedName name="画面2" localSheetId="0">#REF!</definedName>
@@ -271,31 +230,29 @@
     <definedName name="画面6">#REF!</definedName>
     <definedName name="画面7" localSheetId="0">#REF!</definedName>
     <definedName name="画面7">#REF!</definedName>
-    <definedName name="直扱単価">'[4]見積明細(ハードのみ）'!$V$5:$V$34</definedName>
-    <definedName name="社共単価">'[4]見積明細(ハードのみ）'!$T$5:$T$34</definedName>
-    <definedName name="種別" localSheetId="0">#REF!</definedName>
-    <definedName name="種別">#REF!</definedName>
-    <definedName name="終了" localSheetId="0">[17]!終了</definedName>
-    <definedName name="終了">[17]!終了</definedName>
-    <definedName name="見やすく" localSheetId="0">[13]!見やすく</definedName>
-    <definedName name="見やすく">[13]!見やすく</definedName>
-    <definedName name="見積工数" localSheetId="0">#REF!</definedName>
-    <definedName name="見積工数">#REF!</definedName>
     <definedName name="解析">#N/A</definedName>
-    <definedName name="設計書">#N/A</definedName>
-    <definedName name="部">'[4]見積明細(ハードのみ）'!$Z$5:$Z$34</definedName>
-    <definedName name="部門別時間外労働手当状況" localSheetId="0">#REF!</definedName>
-    <definedName name="部門別時間外労働手当状況">#REF!</definedName>
+    <definedName name="概要_基準日設定" localSheetId="0" hidden="1">#REF!</definedName>
+    <definedName name="概要_基準日設定" hidden="1">#REF!</definedName>
+    <definedName name="関連表" localSheetId="0" hidden="1">#REF!</definedName>
+    <definedName name="関連表" hidden="1">#REF!</definedName>
+    <definedName name="機種SORT" localSheetId="0">[15]!機種SORT</definedName>
+    <definedName name="機種SORT">[16]!機種SORT</definedName>
+    <definedName name="機能別原価" localSheetId="0">#REF!</definedName>
+    <definedName name="機能別原価">#REF!</definedName>
     <definedName name="銀行の登録48" localSheetId="0">#REF!</definedName>
     <definedName name="銀行の登録48">#REF!</definedName>
     <definedName name="銀行の登録67" localSheetId="0">#REF!</definedName>
     <definedName name="銀行の登録67">#REF!</definedName>
     <definedName name="銀行の登録7" localSheetId="0">#REF!</definedName>
     <definedName name="銀行の登録7">#REF!</definedName>
-    <definedName name="関連表" localSheetId="0" hidden="1">#REF!</definedName>
-    <definedName name="関連表" hidden="1">#REF!</definedName>
-    <definedName name="電車" localSheetId="0">#REF!</definedName>
-    <definedName name="電車">#REF!</definedName>
+    <definedName name="見やすく" localSheetId="0">[13]!見やすく</definedName>
+    <definedName name="見やすく">[13]!見やすく</definedName>
+    <definedName name="見積工数" localSheetId="0">#REF!</definedName>
+    <definedName name="見積工数">#REF!</definedName>
+    <definedName name="原価" localSheetId="0">#REF!</definedName>
+    <definedName name="原価">#REF!</definedName>
+    <definedName name="工程別生産性" localSheetId="0">#REF!</definedName>
+    <definedName name="工程別生産性">#REF!</definedName>
     <definedName name="項目名の登録1" localSheetId="0">#REF!</definedName>
     <definedName name="項目名の登録1">#REF!</definedName>
     <definedName name="項目名の登録2" localSheetId="0">#REF!</definedName>
@@ -312,8 +269,52 @@
     <definedName name="項目名の登録7">#REF!</definedName>
     <definedName name="項目名の登録8" localSheetId="0">#REF!</definedName>
     <definedName name="項目名の登録8">#REF!</definedName>
+    <definedName name="仕切り">'[4]見積明細(ハードのみ）'!$R$5:$R$34</definedName>
+    <definedName name="仕切単価">'[4]見積明細(ハードのみ）'!$R$5:$R$34</definedName>
+    <definedName name="社共単価">'[4]見積明細(ハードのみ）'!$T$5:$T$34</definedName>
+    <definedName name="種別" localSheetId="0">#REF!</definedName>
+    <definedName name="種別">#REF!</definedName>
+    <definedName name="終了" localSheetId="0">[17]!終了</definedName>
+    <definedName name="終了">[17]!終了</definedName>
+    <definedName name="住民税115" localSheetId="0">#REF!</definedName>
+    <definedName name="住民税115">#REF!</definedName>
+    <definedName name="住民税96" localSheetId="0">#REF!</definedName>
+    <definedName name="住民税96">#REF!</definedName>
+    <definedName name="住民税納付先の登録7" localSheetId="0">#REF!</definedName>
+    <definedName name="住民税納付先の登録7">#REF!</definedName>
+    <definedName name="宿泊" localSheetId="0">#REF!</definedName>
+    <definedName name="宿泊">#REF!</definedName>
+    <definedName name="宿泊単金" localSheetId="0">#REF!</definedName>
+    <definedName name="宿泊単金">#REF!</definedName>
+    <definedName name="人日原価" localSheetId="0">#REF!</definedName>
+    <definedName name="人日原価">#REF!</definedName>
+    <definedName name="設計書">#N/A</definedName>
+    <definedName name="単価" localSheetId="0">#REF!</definedName>
+    <definedName name="単価">#REF!</definedName>
+    <definedName name="単価種別" localSheetId="0">#REF!</definedName>
+    <definedName name="単価種別">#REF!</definedName>
+    <definedName name="値引単価">'[4]見積明細(ハードのみ）'!$J$5:$J$34</definedName>
+    <definedName name="直扱単価">'[4]見積明細(ハードのみ）'!$V$5:$V$34</definedName>
+    <definedName name="定価" localSheetId="0">#REF!</definedName>
+    <definedName name="定価">#REF!</definedName>
+    <definedName name="電車" localSheetId="0">#REF!</definedName>
+    <definedName name="電車">#REF!</definedName>
+    <definedName name="日帰り" localSheetId="0">#REF!</definedName>
+    <definedName name="日帰り">#REF!</definedName>
+    <definedName name="日帰り単金" localSheetId="0">#REF!</definedName>
+    <definedName name="日帰り単金">#REF!</definedName>
+    <definedName name="売値" localSheetId="0">#REF!</definedName>
+    <definedName name="売値">#REF!</definedName>
     <definedName name="飛行機" localSheetId="0">#REF!</definedName>
     <definedName name="飛行機">#REF!</definedName>
+    <definedName name="備考">'[4]見積明細(ハードのみ）'!$AA$5:$AA$34</definedName>
+    <definedName name="標準価格">'[4]見積明細(ハードのみ）'!$C$5:$H$34</definedName>
+    <definedName name="部">'[4]見積明細(ハードのみ）'!$Z$5:$Z$34</definedName>
+    <definedName name="部門別時間外労働手当状況" localSheetId="0">#REF!</definedName>
+    <definedName name="部門別時間外労働手当状況">#REF!</definedName>
+    <definedName name="保守委託単価">'[4]見積明細(ハードのみ）'!$N$5:$N$34</definedName>
+    <definedName name="保守支援単価">'[4]見積明細(ハードのみ）'!$P$5:$P$34</definedName>
+    <definedName name="保守単価">'[4]見積明細(ハードのみ）'!$L$5:$L$34</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
@@ -375,14 +376,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -390,7 +391,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -398,7 +399,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -411,7 +412,7 @@
     </font>
     <font>
       <sz val="6"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -439,7 +440,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -610,8 +611,8 @@
   </cellXfs>
   <cellStyles count="12">
     <cellStyle name="L1 見出し" xfId="4"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="ハイパーリンク 2" xfId="11"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="標準 10" xfId="2"/>
     <cellStyle name="標準 2" xfId="1"/>
     <cellStyle name="標準 2 2" xfId="5"/>
@@ -622,8 +623,36 @@
     <cellStyle name="標準 5" xfId="7"/>
     <cellStyle name="標準 5 2" xfId="10"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <colors>
     <mruColors>
       <color rgb="FFCCFFFF"/>
@@ -44219,7 +44248,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -44508,28 +44537,28 @@
   <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="T3" sqref="S3:T3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.7109375" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="1.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="1.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.125" style="1" customWidth="1"/>
     <col min="4" max="4" width="11" style="1" customWidth="1"/>
-    <col min="5" max="5" width="6.85546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="6.85546875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="6.85546875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="6.85546875" style="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="6.85546875" style="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" customWidth="1"/>
-    <col min="15" max="15" width="8.42578125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="1.5703125" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="2.7109375" style="1"/>
+    <col min="5" max="5" width="6.875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="6.875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="14.625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="6.875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="14.625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="6.875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6.875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="14.625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="8.375" style="1" customWidth="1"/>
+    <col min="16" max="16" width="1.625" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="2.75" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15" customHeight="1" thickBot="1">
@@ -44590,7 +44619,7 @@
   <pageMargins left="0.39370078740157499" right="0.39370078740157499" top="0.59055118110236204" bottom="0.59055118110236204" header="0.31496062992126" footer="0.31496062992126"/>
   <pageSetup paperSize="9" scale="83" orientation="landscape" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;L&amp;"ＭＳ ゴシック,Regular"&amp;9【会社】日通システム株式会社&amp;C&amp;"ＭＳ ゴシック,Bold"&amp;16承認者一覧（申請者&amp;"-,Regular"&amp;11）&amp;R&amp;"ＭＳ ゴシック,Regular"&amp;9&amp;D&amp;T
+    <oddHeader>&amp;C&amp;"ＭＳ ゴシック,太字"&amp;16承認者一覧（申請者&amp;"-,標準"&amp;11）&amp;R&amp;"ＭＳ ゴシック,標準"&amp;9&amp;D &amp;T
 &amp;P/&amp;N</oddHeader>
   </headerFooter>
 </worksheet>

--- a/nts.uk/uk.com/com.file/nts.uk.file.com.infra/src/main/resources/report/申請者として承認ルートのEXCEL出力.xlsx
+++ b/nts.uk/uk.com/com.file/nts.uk.file.com.infra/src/main/resources/report/申請者として承認ルートのEXCEL出力.xlsx
@@ -376,14 +376,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -391,7 +391,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -399,7 +399,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -412,7 +412,7 @@
     </font>
     <font>
       <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -440,7 +440,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -677,9 +677,11 @@
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="１．社内ﾈｯﾄﾜｰｸﾊｰﾄﾞｳｪｱ"/>
+      <sheetName val="master"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
+      <sheetData sheetId="1" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -44537,28 +44539,28 @@
   <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="T3" sqref="S3:T3"/>
+      <selection activeCell="AL19" sqref="AL19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="2.7109375" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="1.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="1.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" style="1" customWidth="1"/>
     <col min="4" max="4" width="11" style="1" customWidth="1"/>
-    <col min="5" max="5" width="6.875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="6.875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="14.625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="6.875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="6.875" style="1" customWidth="1"/>
-    <col min="12" max="12" width="14.625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="6.875" style="1" customWidth="1"/>
-    <col min="14" max="14" width="14.625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="8.375" style="1" customWidth="1"/>
-    <col min="16" max="16" width="1.625" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="2.75" style="1"/>
+    <col min="5" max="5" width="6.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="6.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="6.85546875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="6.85546875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6.85546875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="8.42578125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="1.5703125" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="2.7109375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15" customHeight="1" thickBot="1">
@@ -44619,7 +44621,7 @@
   <pageMargins left="0.39370078740157499" right="0.39370078740157499" top="0.59055118110236204" bottom="0.59055118110236204" header="0.31496062992126" footer="0.31496062992126"/>
   <pageSetup paperSize="9" scale="83" orientation="landscape" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;C&amp;"ＭＳ ゴシック,太字"&amp;16承認者一覧（申請者&amp;"-,標準"&amp;11）&amp;R&amp;"ＭＳ ゴシック,標準"&amp;9&amp;D &amp;T
+    <oddHeader>&amp;C&amp;"ＭＳ ゴシック,太字"&amp;16承認者一覧（申請者）&amp;R&amp;"ＭＳ ゴシック,標準"&amp;9&amp;D &amp;T
 &amp;P/&amp;N</oddHeader>
   </headerFooter>
 </worksheet>

--- a/nts.uk/uk.com/com.file/nts.uk.file.com.infra/src/main/resources/report/申請者として承認ルートのEXCEL出力.xlsx
+++ b/nts.uk/uk.com/com.file/nts.uk.file.com.infra/src/main/resources/report/申請者として承認ルートのEXCEL出力.xlsx
@@ -44539,7 +44539,7 @@
   <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AL19" sqref="AL19"/>
+      <selection activeCell="R7" sqref="R7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.7109375" defaultRowHeight="12"/>
@@ -44558,7 +44558,7 @@
     <col min="12" max="12" width="14.5703125" style="1" customWidth="1"/>
     <col min="13" max="13" width="6.85546875" style="1" customWidth="1"/>
     <col min="14" max="14" width="14.5703125" style="1" customWidth="1"/>
-    <col min="15" max="15" width="8.42578125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" customWidth="1"/>
     <col min="16" max="16" width="1.5703125" style="1" customWidth="1"/>
     <col min="17" max="16384" width="2.7109375" style="1"/>
   </cols>

--- a/nts.uk/uk.com/com.file/nts.uk.file.com.infra/src/main/resources/report/申請者として承認ルートのEXCEL出力.xlsx
+++ b/nts.uk/uk.com/com.file/nts.uk.file.com.infra/src/main/resources/report/申請者として承認ルートのEXCEL出力.xlsx
@@ -333,24 +333,6 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>フェーズ1⇒</t>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>フェーズ2⇒</t>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>フェーズ3⇒</t>
-  </si>
-  <si>
-    <t>フェーズ4⇒</t>
-  </si>
-  <si>
-    <t>フェーズ5</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
     <t>個人</t>
     <rPh sb="0" eb="2">
       <t>コジン</t>
@@ -366,6 +348,21 @@
       <t>メイ</t>
     </rPh>
     <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>レベル1</t>
+  </si>
+  <si>
+    <t>←レベル2</t>
+  </si>
+  <si>
+    <t>←レベル3</t>
+  </si>
+  <si>
+    <t>←レベル4</t>
+  </si>
+  <si>
+    <t>←レベル5</t>
   </si>
 </sst>
 </file>
@@ -705,6 +702,7 @@
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="項目定義書"/>
+      <sheetName val="テーブル設計991127"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0" refreshError="1">
@@ -5985,6 +5983,7 @@
           </cell>
         </row>
       </sheetData>
+      <sheetData sheetId="1" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -6354,6 +6353,8 @@
       <sheetName val="見積明細(ハード三菱分のみ）"/>
       <sheetName val="見積明細(PP料含む） (2)"/>
       <sheetName val="費用比較 "/>
+      <sheetName val="ﾊｰﾄﾞ明細(FT1200）"/>
+      <sheetName val="master"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0" refreshError="1">
@@ -7820,6 +7821,8 @@
       <sheetData sheetId="2"/>
       <sheetData sheetId="3"/>
       <sheetData sheetId="4"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -7830,6 +7833,7 @@
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="仕切価格"/>
+      <sheetName val="１．社内ﾈｯﾄﾜｰｸﾊｰﾄﾞｳｪｱ"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0" refreshError="1">
@@ -44180,6 +44184,7 @@
           </cell>
         </row>
       </sheetData>
+      <sheetData sheetId="1" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -44539,7 +44544,7 @@
   <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="R7" sqref="R7"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.7109375" defaultRowHeight="12"/>
@@ -44566,30 +44571,30 @@
     <row r="1" spans="1:16" ht="15" customHeight="1" thickBot="1">
       <c r="A1" s="3"/>
       <c r="B1" s="7" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C1" s="8"/>
       <c r="D1" s="5" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F1" s="7"/>
       <c r="G1" s="6" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H1" s="6"/>
       <c r="I1" s="6" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J1" s="6"/>
       <c r="K1" s="6" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L1" s="6"/>
       <c r="M1" s="6" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="N1" s="6"/>
       <c r="O1" s="4" t="s">
